--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/23,06,25 Бутырин с филиалами на 28,06,25/Бутырин Д.В 30.06.2025.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/23,06,25 Бутырин с филиалами на 28,06,25/Бутырин Д.В 30.06.2025.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\06,25\23,06,25 Бутырин с филиалами на 28,06,25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47041C-3F67-46D3-8BD2-BFC3903E2A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -33,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t xml:space="preserve">Ип Бутырин Д.В Донецк Отоская 79а </t>
   </si>
@@ -269,24 +286,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0&quot; &quot;;&quot;-&quot;0&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0&quot; &quot;;&quot;-&quot;0&quot; &quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -294,24 +300,32 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -513,109 +527,123 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="ffff0000"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="fffff4c5"/>
-      <rgbColor rgb="ff758ce0"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFF4C5"/>
+      <rgbColor rgb="FF758CE0"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -741,7 +769,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -750,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -759,7 +787,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -833,7 +861,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -841,7 +869,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -859,7 +887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +916,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +966,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1016,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +1041,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1066,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1116,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,9 +1129,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1118,7 +1152,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1126,7 +1160,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1144,7 +1178,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1203,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1228,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1253,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1278,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1303,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1353,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1378,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,9 +1416,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1398,7 +1438,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1416,7 +1456,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1485,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1470,7 +1510,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1535,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1520,7 +1560,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1545,7 +1585,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1570,7 +1610,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,7 +1635,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1660,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1645,7 +1685,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1658,34 +1698,44 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V474"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="22" width="8" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1710,7 +1760,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1734,20 +1784,20 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="10"/>
@@ -1768,7 +1818,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1798,11 +1848,11 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="15">
@@ -1831,11 +1881,11 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="15">
@@ -1866,11 +1916,11 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="15">
@@ -1901,11 +1951,11 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15">
@@ -1934,11 +1984,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="15">
@@ -1967,11 +2017,11 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="15">
@@ -2000,11 +2050,11 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
@@ -2033,11 +2083,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="15">
@@ -2066,11 +2116,11 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15">
@@ -2099,11 +2149,11 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="15">
@@ -2132,11 +2182,11 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="15">
@@ -2167,11 +2217,11 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15">
@@ -2202,11 +2252,11 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="15">
@@ -2235,11 +2285,11 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15">
@@ -2270,11 +2320,11 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="15">
@@ -2305,11 +2355,11 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="15">
@@ -2340,11 +2390,11 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15">
@@ -2375,11 +2425,11 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="15">
@@ -2410,11 +2460,11 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="15">
@@ -2445,11 +2495,11 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="15">
@@ -2478,11 +2528,11 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="15">
@@ -2513,11 +2563,11 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" ht="13.65" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="15">
@@ -2546,11 +2596,11 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="15">
@@ -2581,11 +2631,11 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="15">
@@ -2614,11 +2664,11 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" ht="13.65" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="15">
@@ -2647,11 +2697,11 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="15">
@@ -2680,11 +2730,11 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" ht="13.65" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="15">
@@ -2715,11 +2765,11 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="15">
@@ -2750,11 +2800,11 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" ht="13.65" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="15">
@@ -2783,11 +2833,11 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" ht="13.65" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="15">
@@ -2816,11 +2866,11 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" ht="13.65" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="15">
@@ -2849,11 +2899,11 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" ht="13.65" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="15">
@@ -2882,11 +2932,11 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" ht="13.65" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="15">
@@ -2915,11 +2965,11 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" ht="13.65" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="15">
@@ -2948,11 +2998,11 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="15">
@@ -2981,11 +3031,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="15">
@@ -3014,11 +3064,11 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" ht="13.65" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="15">
@@ -3047,11 +3097,11 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="15">
@@ -3080,11 +3130,11 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" ht="13.65" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="15">
@@ -3113,11 +3163,11 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" ht="13.65" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="15">
@@ -3146,11 +3196,11 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" ht="13.65" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="15">
@@ -3179,11 +3229,11 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" ht="13.65" customHeight="1">
-      <c r="A46" t="s" s="2">
+    <row r="46" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="15">
@@ -3212,11 +3262,11 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" ht="13.65" customHeight="1">
-      <c r="A47" t="s" s="2">
+    <row r="47" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="15">
@@ -3245,11 +3295,11 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" ht="13.65" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="15">
@@ -3278,11 +3328,11 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" ht="13.65" customHeight="1">
-      <c r="A49" t="s" s="2">
+    <row r="49" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="15">
@@ -3311,11 +3361,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" ht="13.65" customHeight="1">
-      <c r="A50" t="s" s="2">
+    <row r="50" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="15">
@@ -3344,11 +3394,11 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" ht="13.65" customHeight="1">
-      <c r="A51" t="s" s="2">
+    <row r="51" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="15">
@@ -3377,11 +3427,11 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" ht="13.65" customHeight="1">
-      <c r="A52" t="s" s="2">
+    <row r="52" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="15">
@@ -3410,11 +3460,11 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" ht="13.65" customHeight="1">
-      <c r="A53" t="s" s="2">
+    <row r="53" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="15">
@@ -3443,11 +3493,11 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" ht="13.65" customHeight="1">
-      <c r="A54" t="s" s="2">
+    <row r="54" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="15">
@@ -3476,11 +3526,11 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" ht="13.65" customHeight="1">
-      <c r="A55" t="s" s="2">
+    <row r="55" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="15">
@@ -3509,11 +3559,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" t="s" s="2">
+    <row r="56" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="15">
@@ -3542,11 +3592,11 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" t="s" s="2">
+    <row r="57" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="15">
@@ -3575,11 +3625,11 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" t="s" s="2">
+    <row r="58" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="15">
@@ -3608,11 +3658,11 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" t="s" s="2">
+    <row r="59" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="15">
@@ -3641,11 +3691,11 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" t="s" s="2">
+    <row r="60" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="15">
@@ -3676,11 +3726,11 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" t="s" s="2">
+    <row r="61" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="15">
@@ -3709,11 +3759,11 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" ht="13.65" customHeight="1">
-      <c r="A62" t="s" s="2">
+    <row r="62" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="15">
@@ -3742,11 +3792,11 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" ht="13.65" customHeight="1">
-      <c r="A63" t="s" s="2">
+    <row r="63" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="15">
@@ -3775,11 +3825,11 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" ht="13.65" customHeight="1">
-      <c r="A64" t="s" s="2">
+    <row r="64" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="15">
@@ -3808,11 +3858,11 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" ht="13.65" customHeight="1">
-      <c r="A65" t="s" s="2">
+    <row r="65" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="15">
@@ -3841,11 +3891,11 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" ht="13.65" customHeight="1">
-      <c r="A66" t="s" s="2">
+    <row r="66" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="15">
@@ -3874,11 +3924,11 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" ht="13.65" customHeight="1">
-      <c r="A67" t="s" s="2">
+    <row r="67" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="15">
@@ -3907,11 +3957,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" ht="13.65" customHeight="1">
-      <c r="A68" t="s" s="2">
+    <row r="68" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="15">
@@ -3940,11 +3990,11 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" ht="13.65" customHeight="1">
-      <c r="A69" t="s" s="2">
+    <row r="69" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="15">
@@ -3973,11 +4023,11 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" ht="13.65" customHeight="1">
-      <c r="A70" t="s" s="2">
+    <row r="70" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="15">
@@ -4006,11 +4056,11 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" ht="13.65" customHeight="1">
-      <c r="A71" t="s" s="2">
+    <row r="71" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="15">
@@ -4039,11 +4089,11 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" ht="13.65" customHeight="1">
-      <c r="A72" t="s" s="2">
+    <row r="72" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="15">
@@ -4072,11 +4122,11 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" ht="13.65" customHeight="1">
-      <c r="A73" t="s" s="2">
+    <row r="73" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="15">
@@ -4105,7 +4155,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" ht="13.65" customHeight="1">
+    <row r="74" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -4129,7 +4179,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" ht="13.65" customHeight="1">
+    <row r="75" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -4153,7 +4203,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" ht="13.65" customHeight="1">
+    <row r="76" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -4177,7 +4227,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" ht="13.65" customHeight="1">
+    <row r="77" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -4201,7 +4251,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" ht="13.65" customHeight="1">
+    <row r="78" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -4225,7 +4275,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" ht="13.65" customHeight="1">
+    <row r="79" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -4249,7 +4299,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" ht="13.65" customHeight="1">
+    <row r="80" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -4273,7 +4323,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" ht="13.65" customHeight="1">
+    <row r="81" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -4297,7 +4347,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" ht="13.65" customHeight="1">
+    <row r="82" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -4321,7 +4371,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" ht="13.65" customHeight="1">
+    <row r="83" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -4345,7 +4395,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" ht="13.65" customHeight="1">
+    <row r="84" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -4369,7 +4419,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" ht="13.65" customHeight="1">
+    <row r="85" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -4393,7 +4443,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" ht="13.65" customHeight="1">
+    <row r="86" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -4417,7 +4467,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" ht="13.65" customHeight="1">
+    <row r="87" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -4441,7 +4491,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" ht="13.65" customHeight="1">
+    <row r="88" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -4465,7 +4515,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" ht="13.65" customHeight="1">
+    <row r="89" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -4489,7 +4539,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" ht="13.65" customHeight="1">
+    <row r="90" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -4513,7 +4563,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" ht="13.65" customHeight="1">
+    <row r="91" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -4537,7 +4587,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" ht="13.65" customHeight="1">
+    <row r="92" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -4561,7 +4611,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" ht="13.65" customHeight="1">
+    <row r="93" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -4585,7 +4635,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" ht="13.65" customHeight="1">
+    <row r="94" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -4609,7 +4659,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" ht="13.65" customHeight="1">
+    <row r="95" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -4633,7 +4683,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" ht="13.65" customHeight="1">
+    <row r="96" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -4657,7 +4707,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" ht="13.65" customHeight="1">
+    <row r="97" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -4681,7 +4731,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" ht="13.65" customHeight="1">
+    <row r="98" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -4705,7 +4755,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" ht="13.65" customHeight="1">
+    <row r="99" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -4729,7 +4779,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" ht="13.65" customHeight="1">
+    <row r="100" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -4753,7 +4803,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" ht="13.65" customHeight="1">
+    <row r="101" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -4777,7 +4827,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" ht="13.65" customHeight="1">
+    <row r="102" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -4801,7 +4851,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" ht="13.65" customHeight="1">
+    <row r="103" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -4825,7 +4875,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" ht="13.65" customHeight="1">
+    <row r="104" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -4849,7 +4899,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" ht="13.65" customHeight="1">
+    <row r="105" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -4873,7 +4923,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" ht="13.65" customHeight="1">
+    <row r="106" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -4897,7 +4947,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" ht="13.65" customHeight="1">
+    <row r="107" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -4921,7 +4971,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" ht="13.65" customHeight="1">
+    <row r="108" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -4945,7 +4995,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" ht="13.65" customHeight="1">
+    <row r="109" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -4969,7 +5019,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" ht="13.65" customHeight="1">
+    <row r="110" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -4993,7 +5043,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" ht="13.65" customHeight="1">
+    <row r="111" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -5017,7 +5067,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" ht="13.65" customHeight="1">
+    <row r="112" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -5041,7 +5091,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
     </row>
-    <row r="113" ht="13.65" customHeight="1">
+    <row r="113" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -5065,7 +5115,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
     </row>
-    <row r="114" ht="13.65" customHeight="1">
+    <row r="114" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -5089,7 +5139,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" ht="13.65" customHeight="1">
+    <row r="115" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -5113,7 +5163,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
     </row>
-    <row r="116" ht="13.65" customHeight="1">
+    <row r="116" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -5137,7 +5187,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" ht="13.65" customHeight="1">
+    <row r="117" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -5161,7 +5211,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" ht="13.65" customHeight="1">
+    <row r="118" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -5185,7 +5235,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" ht="13.65" customHeight="1">
+    <row r="119" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -5209,7 +5259,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
     </row>
-    <row r="120" ht="13.65" customHeight="1">
+    <row r="120" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -5233,7 +5283,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" ht="13.65" customHeight="1">
+    <row r="121" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -5257,7 +5307,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" ht="13.65" customHeight="1">
+    <row r="122" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -5281,7 +5331,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
     </row>
-    <row r="123" ht="13.65" customHeight="1">
+    <row r="123" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -5305,7 +5355,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
     </row>
-    <row r="124" ht="13.65" customHeight="1">
+    <row r="124" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -5329,7 +5379,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
     </row>
-    <row r="125" ht="13.65" customHeight="1">
+    <row r="125" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -5353,7 +5403,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
     </row>
-    <row r="126" ht="13.65" customHeight="1">
+    <row r="126" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -5377,7 +5427,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
     </row>
-    <row r="127" ht="13.65" customHeight="1">
+    <row r="127" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -5401,7 +5451,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
     </row>
-    <row r="128" ht="13.65" customHeight="1">
+    <row r="128" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -5425,7 +5475,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" ht="13.65" customHeight="1">
+    <row r="129" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -5449,7 +5499,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" ht="13.65" customHeight="1">
+    <row r="130" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -5473,7 +5523,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
     </row>
-    <row r="131" ht="13.65" customHeight="1">
+    <row r="131" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -5497,7 +5547,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
     </row>
-    <row r="132" ht="13.65" customHeight="1">
+    <row r="132" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -5521,7 +5571,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
     </row>
-    <row r="133" ht="13.65" customHeight="1">
+    <row r="133" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -5545,7 +5595,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" ht="13.65" customHeight="1">
+    <row r="134" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -5569,7 +5619,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
     </row>
-    <row r="135" ht="13.65" customHeight="1">
+    <row r="135" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -5593,7 +5643,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
     </row>
-    <row r="136" ht="13.65" customHeight="1">
+    <row r="136" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -5617,7 +5667,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
     </row>
-    <row r="137" ht="13.65" customHeight="1">
+    <row r="137" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -5641,7 +5691,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
     </row>
-    <row r="138" ht="13.65" customHeight="1">
+    <row r="138" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -5665,7 +5715,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
     </row>
-    <row r="139" ht="13.65" customHeight="1">
+    <row r="139" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -5689,7 +5739,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
     </row>
-    <row r="140" ht="13.65" customHeight="1">
+    <row r="140" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -5713,7 +5763,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
     </row>
-    <row r="141" ht="13.65" customHeight="1">
+    <row r="141" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -5737,7 +5787,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
     </row>
-    <row r="142" ht="13.65" customHeight="1">
+    <row r="142" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
@@ -5761,7 +5811,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
     </row>
-    <row r="143" ht="13.65" customHeight="1">
+    <row r="143" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -5785,7 +5835,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
     </row>
-    <row r="144" ht="13.65" customHeight="1">
+    <row r="144" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -5809,7 +5859,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" ht="13.65" customHeight="1">
+    <row r="145" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -5833,7 +5883,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" ht="13.65" customHeight="1">
+    <row r="146" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -5857,7 +5907,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" ht="13.65" customHeight="1">
+    <row r="147" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -5881,7 +5931,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" ht="13.65" customHeight="1">
+    <row r="148" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -5905,7 +5955,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" ht="13.65" customHeight="1">
+    <row r="149" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -5929,7 +5979,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" ht="13.65" customHeight="1">
+    <row r="150" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -5953,7 +6003,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" ht="13.65" customHeight="1">
+    <row r="151" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -5977,7 +6027,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" ht="13.65" customHeight="1">
+    <row r="152" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -6001,7 +6051,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" ht="13.65" customHeight="1">
+    <row r="153" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -6025,7 +6075,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" ht="13.65" customHeight="1">
+    <row r="154" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -6049,7 +6099,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" ht="13.65" customHeight="1">
+    <row r="155" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
@@ -6073,7 +6123,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" ht="13.65" customHeight="1">
+    <row r="156" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -6097,7 +6147,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" ht="13.65" customHeight="1">
+    <row r="157" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -6121,7 +6171,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" ht="13.65" customHeight="1">
+    <row r="158" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
@@ -6145,7 +6195,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" ht="13.65" customHeight="1">
+    <row r="159" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -6169,7 +6219,7 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" ht="13.65" customHeight="1">
+    <row r="160" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -6193,7 +6243,7 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" ht="13.65" customHeight="1">
+    <row r="161" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -6217,7 +6267,7 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" ht="13.65" customHeight="1">
+    <row r="162" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -6241,7 +6291,7 @@
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" ht="13.65" customHeight="1">
+    <row r="163" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -6265,7 +6315,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" ht="13.65" customHeight="1">
+    <row r="164" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -6289,7 +6339,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" ht="13.65" customHeight="1">
+    <row r="165" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -6313,7 +6363,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" ht="13.65" customHeight="1">
+    <row r="166" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -6337,7 +6387,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" ht="13.65" customHeight="1">
+    <row r="167" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -6361,7 +6411,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" ht="13.65" customHeight="1">
+    <row r="168" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -6385,7 +6435,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
     </row>
-    <row r="169" ht="13.65" customHeight="1">
+    <row r="169" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -6409,7 +6459,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
     </row>
-    <row r="170" ht="13.65" customHeight="1">
+    <row r="170" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -6433,7 +6483,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
     </row>
-    <row r="171" ht="13.65" customHeight="1">
+    <row r="171" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
@@ -6457,7 +6507,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
     </row>
-    <row r="172" ht="13.65" customHeight="1">
+    <row r="172" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -6481,7 +6531,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
     </row>
-    <row r="173" ht="13.65" customHeight="1">
+    <row r="173" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
@@ -6505,7 +6555,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
     </row>
-    <row r="174" ht="13.65" customHeight="1">
+    <row r="174" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
@@ -6529,7 +6579,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
     </row>
-    <row r="175" ht="13.65" customHeight="1">
+    <row r="175" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
@@ -6553,7 +6603,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
     </row>
-    <row r="176" ht="13.65" customHeight="1">
+    <row r="176" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
@@ -6577,7 +6627,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
     </row>
-    <row r="177" ht="13.65" customHeight="1">
+    <row r="177" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -6601,7 +6651,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
     </row>
-    <row r="178" ht="13.65" customHeight="1">
+    <row r="178" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
@@ -6625,7 +6675,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
     </row>
-    <row r="179" ht="13.65" customHeight="1">
+    <row r="179" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
@@ -6649,7 +6699,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
     </row>
-    <row r="180" ht="13.65" customHeight="1">
+    <row r="180" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
@@ -6673,7 +6723,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
     </row>
-    <row r="181" ht="13.65" customHeight="1">
+    <row r="181" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="4"/>
@@ -6697,7 +6747,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
     </row>
-    <row r="182" ht="13.65" customHeight="1">
+    <row r="182" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="4"/>
@@ -6721,7 +6771,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
     </row>
-    <row r="183" ht="13.65" customHeight="1">
+    <row r="183" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="4"/>
@@ -6745,7 +6795,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
     </row>
-    <row r="184" ht="13.65" customHeight="1">
+    <row r="184" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="4"/>
@@ -6769,7 +6819,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
     </row>
-    <row r="185" ht="13.65" customHeight="1">
+    <row r="185" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="4"/>
@@ -6793,7 +6843,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
     </row>
-    <row r="186" ht="13.65" customHeight="1">
+    <row r="186" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="4"/>
@@ -6817,7 +6867,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
     </row>
-    <row r="187" ht="13.65" customHeight="1">
+    <row r="187" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="4"/>
@@ -6841,7 +6891,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
     </row>
-    <row r="188" ht="13.65" customHeight="1">
+    <row r="188" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="4"/>
@@ -6865,7 +6915,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
     </row>
-    <row r="189" ht="13.65" customHeight="1">
+    <row r="189" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="4"/>
@@ -6889,7 +6939,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
     </row>
-    <row r="190" ht="13.65" customHeight="1">
+    <row r="190" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="4"/>
@@ -6913,7 +6963,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
     </row>
-    <row r="191" ht="13.65" customHeight="1">
+    <row r="191" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="4"/>
@@ -6937,7 +6987,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
     </row>
-    <row r="192" ht="13.65" customHeight="1">
+    <row r="192" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="4"/>
@@ -6961,7 +7011,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
     </row>
-    <row r="193" ht="13.65" customHeight="1">
+    <row r="193" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="4"/>
@@ -6985,7 +7035,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
     </row>
-    <row r="194" ht="13.65" customHeight="1">
+    <row r="194" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="4"/>
@@ -7009,7 +7059,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
     </row>
-    <row r="195" ht="13.65" customHeight="1">
+    <row r="195" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="4"/>
@@ -7033,7 +7083,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
     </row>
-    <row r="196" ht="13.65" customHeight="1">
+    <row r="196" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="4"/>
@@ -7057,7 +7107,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
     </row>
-    <row r="197" ht="13.65" customHeight="1">
+    <row r="197" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="4"/>
@@ -7081,7 +7131,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
     </row>
-    <row r="198" ht="13.65" customHeight="1">
+    <row r="198" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="4"/>
@@ -7105,7 +7155,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
     </row>
-    <row r="199" ht="13.65" customHeight="1">
+    <row r="199" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="4"/>
@@ -7129,7 +7179,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
     </row>
-    <row r="200" ht="13.65" customHeight="1">
+    <row r="200" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="4"/>
@@ -7153,7 +7203,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
     </row>
-    <row r="201" ht="13.65" customHeight="1">
+    <row r="201" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="4"/>
@@ -7177,7 +7227,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
     </row>
-    <row r="202" ht="13.65" customHeight="1">
+    <row r="202" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="4"/>
@@ -7201,7 +7251,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
     </row>
-    <row r="203" ht="13.65" customHeight="1">
+    <row r="203" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="4"/>
@@ -7225,7 +7275,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
     </row>
-    <row r="204" ht="13.65" customHeight="1">
+    <row r="204" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="4"/>
@@ -7249,7 +7299,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
     </row>
-    <row r="205" ht="13.65" customHeight="1">
+    <row r="205" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="4"/>
@@ -7273,7 +7323,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
     </row>
-    <row r="206" ht="13.65" customHeight="1">
+    <row r="206" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="4"/>
@@ -7297,7 +7347,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
     </row>
-    <row r="207" ht="13.65" customHeight="1">
+    <row r="207" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="4"/>
@@ -7321,7 +7371,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
     </row>
-    <row r="208" ht="13.65" customHeight="1">
+    <row r="208" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="4"/>
@@ -7345,7 +7395,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
     </row>
-    <row r="209" ht="13.65" customHeight="1">
+    <row r="209" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="4"/>
@@ -7369,7 +7419,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
     </row>
-    <row r="210" ht="13.65" customHeight="1">
+    <row r="210" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="4"/>
@@ -7393,7 +7443,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
     </row>
-    <row r="211" ht="13.65" customHeight="1">
+    <row r="211" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="4"/>
@@ -7417,7 +7467,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
     </row>
-    <row r="212" ht="13.65" customHeight="1">
+    <row r="212" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="4"/>
@@ -7441,7 +7491,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
     </row>
-    <row r="213" ht="13.65" customHeight="1">
+    <row r="213" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="4"/>
@@ -7465,7 +7515,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
     </row>
-    <row r="214" ht="13.65" customHeight="1">
+    <row r="214" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="4"/>
@@ -7489,7 +7539,7 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
     </row>
-    <row r="215" ht="13.65" customHeight="1">
+    <row r="215" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="4"/>
@@ -7513,7 +7563,7 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
     </row>
-    <row r="216" ht="13.65" customHeight="1">
+    <row r="216" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="4"/>
@@ -7537,7 +7587,7 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
     </row>
-    <row r="217" ht="13.65" customHeight="1">
+    <row r="217" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="4"/>
@@ -7561,7 +7611,7 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
     </row>
-    <row r="218" ht="13.65" customHeight="1">
+    <row r="218" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="4"/>
@@ -7585,7 +7635,7 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
     </row>
-    <row r="219" ht="13.65" customHeight="1">
+    <row r="219" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="4"/>
@@ -7609,7 +7659,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
     </row>
-    <row r="220" ht="13.65" customHeight="1">
+    <row r="220" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="4"/>
@@ -7633,7 +7683,7 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
     </row>
-    <row r="221" ht="13.65" customHeight="1">
+    <row r="221" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="4"/>
@@ -7657,7 +7707,7 @@
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
     </row>
-    <row r="222" ht="13.65" customHeight="1">
+    <row r="222" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="4"/>
@@ -7681,7 +7731,7 @@
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
     </row>
-    <row r="223" ht="13.65" customHeight="1">
+    <row r="223" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="4"/>
@@ -7705,7 +7755,7 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
     </row>
-    <row r="224" ht="13.65" customHeight="1">
+    <row r="224" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="4"/>
@@ -7729,7 +7779,7 @@
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
     </row>
-    <row r="225" ht="13.65" customHeight="1">
+    <row r="225" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="4"/>
@@ -7753,7 +7803,7 @@
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
     </row>
-    <row r="226" ht="13.65" customHeight="1">
+    <row r="226" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="4"/>
@@ -7777,7 +7827,7 @@
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
     </row>
-    <row r="227" ht="13.65" customHeight="1">
+    <row r="227" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="4"/>
@@ -7801,7 +7851,7 @@
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
     </row>
-    <row r="228" ht="13.65" customHeight="1">
+    <row r="228" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="4"/>
@@ -7825,7 +7875,7 @@
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
     </row>
-    <row r="229" ht="13.65" customHeight="1">
+    <row r="229" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="4"/>
@@ -7849,7 +7899,7 @@
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
     </row>
-    <row r="230" ht="13.65" customHeight="1">
+    <row r="230" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="4"/>
@@ -7873,7 +7923,7 @@
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
     </row>
-    <row r="231" ht="13.65" customHeight="1">
+    <row r="231" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="4"/>
@@ -7897,7 +7947,7 @@
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
     </row>
-    <row r="232" ht="13.65" customHeight="1">
+    <row r="232" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="4"/>
@@ -7921,7 +7971,7 @@
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
     </row>
-    <row r="233" ht="13.65" customHeight="1">
+    <row r="233" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="4"/>
@@ -7945,7 +7995,7 @@
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
     </row>
-    <row r="234" ht="13.65" customHeight="1">
+    <row r="234" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="4"/>
@@ -7969,7 +8019,7 @@
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
     </row>
-    <row r="235" ht="13.65" customHeight="1">
+    <row r="235" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="4"/>
@@ -7993,7 +8043,7 @@
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
     </row>
-    <row r="236" ht="13.65" customHeight="1">
+    <row r="236" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="4"/>
@@ -8017,7 +8067,7 @@
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
     </row>
-    <row r="237" ht="13.65" customHeight="1">
+    <row r="237" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="4"/>
@@ -8041,7 +8091,7 @@
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
     </row>
-    <row r="238" ht="13.65" customHeight="1">
+    <row r="238" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="4"/>
@@ -8065,7 +8115,7 @@
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
     </row>
-    <row r="239" ht="13.65" customHeight="1">
+    <row r="239" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="4"/>
@@ -8089,7 +8139,7 @@
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
     </row>
-    <row r="240" ht="13.65" customHeight="1">
+    <row r="240" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="4"/>
@@ -8113,7 +8163,7 @@
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
     </row>
-    <row r="241" ht="13.65" customHeight="1">
+    <row r="241" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="4"/>
@@ -8137,7 +8187,7 @@
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
     </row>
-    <row r="242" ht="13.65" customHeight="1">
+    <row r="242" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="4"/>
@@ -8161,7 +8211,7 @@
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
     </row>
-    <row r="243" ht="13.65" customHeight="1">
+    <row r="243" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="4"/>
@@ -8185,7 +8235,7 @@
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
     </row>
-    <row r="244" ht="13.65" customHeight="1">
+    <row r="244" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="4"/>
@@ -8209,7 +8259,7 @@
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
     </row>
-    <row r="245" ht="13.65" customHeight="1">
+    <row r="245" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="4"/>
@@ -8233,7 +8283,7 @@
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
     </row>
-    <row r="246" ht="13.65" customHeight="1">
+    <row r="246" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
@@ -8257,7 +8307,7 @@
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
     </row>
-    <row r="247" ht="13.65" customHeight="1">
+    <row r="247" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="4"/>
@@ -8281,7 +8331,7 @@
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
     </row>
-    <row r="248" ht="13.65" customHeight="1">
+    <row r="248" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="4"/>
@@ -8305,7 +8355,7 @@
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
     </row>
-    <row r="249" ht="13.65" customHeight="1">
+    <row r="249" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
@@ -8329,7 +8379,7 @@
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
     </row>
-    <row r="250" ht="13.65" customHeight="1">
+    <row r="250" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="4"/>
@@ -8353,7 +8403,7 @@
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
     </row>
-    <row r="251" ht="13.65" customHeight="1">
+    <row r="251" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="4"/>
@@ -8377,7 +8427,7 @@
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
     </row>
-    <row r="252" ht="13.65" customHeight="1">
+    <row r="252" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="4"/>
@@ -8401,7 +8451,7 @@
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
     </row>
-    <row r="253" ht="13.65" customHeight="1">
+    <row r="253" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
@@ -8425,7 +8475,7 @@
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
     </row>
-    <row r="254" ht="13.65" customHeight="1">
+    <row r="254" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="4"/>
@@ -8449,7 +8499,7 @@
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
     </row>
-    <row r="255" ht="13.65" customHeight="1">
+    <row r="255" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
@@ -8473,7 +8523,7 @@
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
     </row>
-    <row r="256" ht="13.65" customHeight="1">
+    <row r="256" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="4"/>
@@ -8497,7 +8547,7 @@
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
     </row>
-    <row r="257" ht="13.65" customHeight="1">
+    <row r="257" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="4"/>
@@ -8521,7 +8571,7 @@
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
     </row>
-    <row r="258" ht="13.65" customHeight="1">
+    <row r="258" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="4"/>
@@ -8545,7 +8595,7 @@
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
     </row>
-    <row r="259" ht="13.65" customHeight="1">
+    <row r="259" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="4"/>
@@ -8569,7 +8619,7 @@
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
     </row>
-    <row r="260" ht="13.65" customHeight="1">
+    <row r="260" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="4"/>
@@ -8593,7 +8643,7 @@
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
     </row>
-    <row r="261" ht="13.65" customHeight="1">
+    <row r="261" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="4"/>
@@ -8617,7 +8667,7 @@
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
     </row>
-    <row r="262" ht="13.65" customHeight="1">
+    <row r="262" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="4"/>
@@ -8641,7 +8691,7 @@
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
     </row>
-    <row r="263" ht="13.65" customHeight="1">
+    <row r="263" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="4"/>
@@ -8665,7 +8715,7 @@
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
     </row>
-    <row r="264" ht="13.65" customHeight="1">
+    <row r="264" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="4"/>
@@ -8689,7 +8739,7 @@
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
     </row>
-    <row r="265" ht="13.65" customHeight="1">
+    <row r="265" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="4"/>
@@ -8713,7 +8763,7 @@
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
     </row>
-    <row r="266" ht="13.65" customHeight="1">
+    <row r="266" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="4"/>
@@ -8737,7 +8787,7 @@
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
     </row>
-    <row r="267" ht="13.65" customHeight="1">
+    <row r="267" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="4"/>
@@ -8761,7 +8811,7 @@
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
     </row>
-    <row r="268" ht="13.65" customHeight="1">
+    <row r="268" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="4"/>
@@ -8785,7 +8835,7 @@
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
     </row>
-    <row r="269" ht="13.65" customHeight="1">
+    <row r="269" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="4"/>
@@ -8809,7 +8859,7 @@
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
     </row>
-    <row r="270" ht="13.65" customHeight="1">
+    <row r="270" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="4"/>
@@ -8833,7 +8883,7 @@
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
     </row>
-    <row r="271" ht="13.65" customHeight="1">
+    <row r="271" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="4"/>
@@ -8857,7 +8907,7 @@
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
     </row>
-    <row r="272" ht="13.65" customHeight="1">
+    <row r="272" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="4"/>
@@ -8881,7 +8931,7 @@
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
     </row>
-    <row r="273" ht="13.65" customHeight="1">
+    <row r="273" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="4"/>
@@ -8905,7 +8955,7 @@
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
     </row>
-    <row r="274" ht="13.65" customHeight="1">
+    <row r="274" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="4"/>
@@ -8929,7 +8979,7 @@
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
     </row>
-    <row r="275" ht="13.65" customHeight="1">
+    <row r="275" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="4"/>
@@ -8953,7 +9003,7 @@
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
     </row>
-    <row r="276" ht="13.65" customHeight="1">
+    <row r="276" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="4"/>
@@ -8977,7 +9027,7 @@
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
     </row>
-    <row r="277" ht="13.65" customHeight="1">
+    <row r="277" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="4"/>
@@ -9001,7 +9051,7 @@
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
     </row>
-    <row r="278" ht="13.65" customHeight="1">
+    <row r="278" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="4"/>
@@ -9025,7 +9075,7 @@
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
     </row>
-    <row r="279" ht="13.65" customHeight="1">
+    <row r="279" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="4"/>
@@ -9049,7 +9099,7 @@
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
     </row>
-    <row r="280" ht="13.65" customHeight="1">
+    <row r="280" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="4"/>
@@ -9073,7 +9123,7 @@
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
     </row>
-    <row r="281" ht="13.65" customHeight="1">
+    <row r="281" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="4"/>
@@ -9097,7 +9147,7 @@
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
     </row>
-    <row r="282" ht="13.65" customHeight="1">
+    <row r="282" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="4"/>
@@ -9121,7 +9171,7 @@
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
     </row>
-    <row r="283" ht="13.65" customHeight="1">
+    <row r="283" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="4"/>
@@ -9145,7 +9195,7 @@
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
     </row>
-    <row r="284" ht="13.65" customHeight="1">
+    <row r="284" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="4"/>
@@ -9169,7 +9219,7 @@
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
     </row>
-    <row r="285" ht="13.65" customHeight="1">
+    <row r="285" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="4"/>
@@ -9193,7 +9243,7 @@
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
     </row>
-    <row r="286" ht="13.65" customHeight="1">
+    <row r="286" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="4"/>
@@ -9217,7 +9267,7 @@
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
     </row>
-    <row r="287" ht="13.65" customHeight="1">
+    <row r="287" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="4"/>
@@ -9241,7 +9291,7 @@
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
     </row>
-    <row r="288" ht="13.65" customHeight="1">
+    <row r="288" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="4"/>
@@ -9265,7 +9315,7 @@
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
     </row>
-    <row r="289" ht="13.65" customHeight="1">
+    <row r="289" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="4"/>
@@ -9289,7 +9339,7 @@
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
     </row>
-    <row r="290" ht="13.65" customHeight="1">
+    <row r="290" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="4"/>
@@ -9313,7 +9363,7 @@
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
     </row>
-    <row r="291" ht="13.65" customHeight="1">
+    <row r="291" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="4"/>
@@ -9337,7 +9387,7 @@
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
     </row>
-    <row r="292" ht="13.65" customHeight="1">
+    <row r="292" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="4"/>
@@ -9361,7 +9411,7 @@
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
     </row>
-    <row r="293" ht="13.65" customHeight="1">
+    <row r="293" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="4"/>
@@ -9385,7 +9435,7 @@
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
     </row>
-    <row r="294" ht="13.65" customHeight="1">
+    <row r="294" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="4"/>
@@ -9409,7 +9459,7 @@
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
     </row>
-    <row r="295" ht="13.65" customHeight="1">
+    <row r="295" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="4"/>
@@ -9433,7 +9483,7 @@
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
     </row>
-    <row r="296" ht="13.65" customHeight="1">
+    <row r="296" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="4"/>
@@ -9457,7 +9507,7 @@
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
     </row>
-    <row r="297" ht="13.65" customHeight="1">
+    <row r="297" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="4"/>
@@ -9481,7 +9531,7 @@
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
     </row>
-    <row r="298" ht="13.65" customHeight="1">
+    <row r="298" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="4"/>
@@ -9505,7 +9555,7 @@
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
     </row>
-    <row r="299" ht="13.65" customHeight="1">
+    <row r="299" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="4"/>
@@ -9529,7 +9579,7 @@
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
     </row>
-    <row r="300" ht="13.65" customHeight="1">
+    <row r="300" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="4"/>
@@ -9553,7 +9603,7 @@
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
     </row>
-    <row r="301" ht="13.65" customHeight="1">
+    <row r="301" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="4"/>
@@ -9577,7 +9627,7 @@
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
     </row>
-    <row r="302" ht="13.65" customHeight="1">
+    <row r="302" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="4"/>
@@ -9601,7 +9651,7 @@
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
     </row>
-    <row r="303" ht="13.65" customHeight="1">
+    <row r="303" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="4"/>
@@ -9625,7 +9675,7 @@
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
     </row>
-    <row r="304" ht="13.65" customHeight="1">
+    <row r="304" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="4"/>
@@ -9649,7 +9699,7 @@
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
     </row>
-    <row r="305" ht="13.65" customHeight="1">
+    <row r="305" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="4"/>
@@ -9673,7 +9723,7 @@
       <c r="U305" s="3"/>
       <c r="V305" s="3"/>
     </row>
-    <row r="306" ht="13.65" customHeight="1">
+    <row r="306" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="4"/>
@@ -9697,7 +9747,7 @@
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
     </row>
-    <row r="307" ht="13.65" customHeight="1">
+    <row r="307" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="4"/>
@@ -9721,7 +9771,7 @@
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
     </row>
-    <row r="308" ht="13.65" customHeight="1">
+    <row r="308" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="4"/>
@@ -9745,7 +9795,7 @@
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
     </row>
-    <row r="309" ht="13.65" customHeight="1">
+    <row r="309" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="4"/>
@@ -9769,7 +9819,7 @@
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
     </row>
-    <row r="310" ht="13.65" customHeight="1">
+    <row r="310" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="4"/>
@@ -9793,7 +9843,7 @@
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
     </row>
-    <row r="311" ht="13.65" customHeight="1">
+    <row r="311" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="4"/>
@@ -9817,7 +9867,7 @@
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
     </row>
-    <row r="312" ht="13.65" customHeight="1">
+    <row r="312" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="4"/>
@@ -9841,7 +9891,7 @@
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
     </row>
-    <row r="313" ht="13.65" customHeight="1">
+    <row r="313" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="4"/>
@@ -9865,7 +9915,7 @@
       <c r="U313" s="3"/>
       <c r="V313" s="3"/>
     </row>
-    <row r="314" ht="13.65" customHeight="1">
+    <row r="314" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="4"/>
@@ -9889,7 +9939,7 @@
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
     </row>
-    <row r="315" ht="13.65" customHeight="1">
+    <row r="315" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="4"/>
@@ -9913,7 +9963,7 @@
       <c r="U315" s="3"/>
       <c r="V315" s="3"/>
     </row>
-    <row r="316" ht="13.65" customHeight="1">
+    <row r="316" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="4"/>
@@ -9937,7 +9987,7 @@
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
     </row>
-    <row r="317" ht="13.65" customHeight="1">
+    <row r="317" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="4"/>
@@ -9961,7 +10011,7 @@
       <c r="U317" s="3"/>
       <c r="V317" s="3"/>
     </row>
-    <row r="318" ht="13.65" customHeight="1">
+    <row r="318" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="4"/>
@@ -9985,7 +10035,7 @@
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
     </row>
-    <row r="319" ht="13.65" customHeight="1">
+    <row r="319" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="4"/>
@@ -10009,7 +10059,7 @@
       <c r="U319" s="3"/>
       <c r="V319" s="3"/>
     </row>
-    <row r="320" ht="13.65" customHeight="1">
+    <row r="320" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="4"/>
@@ -10033,7 +10083,7 @@
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
     </row>
-    <row r="321" ht="13.65" customHeight="1">
+    <row r="321" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="4"/>
@@ -10057,7 +10107,7 @@
       <c r="U321" s="3"/>
       <c r="V321" s="3"/>
     </row>
-    <row r="322" ht="13.65" customHeight="1">
+    <row r="322" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="4"/>
@@ -10081,7 +10131,7 @@
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
     </row>
-    <row r="323" ht="13.65" customHeight="1">
+    <row r="323" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="4"/>
@@ -10105,7 +10155,7 @@
       <c r="U323" s="3"/>
       <c r="V323" s="3"/>
     </row>
-    <row r="324" ht="13.65" customHeight="1">
+    <row r="324" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="4"/>
@@ -10129,7 +10179,7 @@
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
     </row>
-    <row r="325" ht="13.65" customHeight="1">
+    <row r="325" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="4"/>
@@ -10153,7 +10203,7 @@
       <c r="U325" s="3"/>
       <c r="V325" s="3"/>
     </row>
-    <row r="326" ht="13.65" customHeight="1">
+    <row r="326" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="4"/>
@@ -10177,7 +10227,7 @@
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
     </row>
-    <row r="327" ht="13.65" customHeight="1">
+    <row r="327" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="4"/>
@@ -10201,7 +10251,7 @@
       <c r="U327" s="3"/>
       <c r="V327" s="3"/>
     </row>
-    <row r="328" ht="13.65" customHeight="1">
+    <row r="328" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="4"/>
@@ -10225,7 +10275,7 @@
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
     </row>
-    <row r="329" ht="13.65" customHeight="1">
+    <row r="329" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="4"/>
@@ -10249,7 +10299,7 @@
       <c r="U329" s="3"/>
       <c r="V329" s="3"/>
     </row>
-    <row r="330" ht="13.65" customHeight="1">
+    <row r="330" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="4"/>
@@ -10273,7 +10323,7 @@
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
     </row>
-    <row r="331" ht="13.65" customHeight="1">
+    <row r="331" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="4"/>
@@ -10297,7 +10347,7 @@
       <c r="U331" s="3"/>
       <c r="V331" s="3"/>
     </row>
-    <row r="332" ht="13.65" customHeight="1">
+    <row r="332" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="4"/>
@@ -10321,7 +10371,7 @@
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
     </row>
-    <row r="333" ht="13.65" customHeight="1">
+    <row r="333" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="4"/>
@@ -10345,7 +10395,7 @@
       <c r="U333" s="3"/>
       <c r="V333" s="3"/>
     </row>
-    <row r="334" ht="13.65" customHeight="1">
+    <row r="334" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="4"/>
@@ -10369,7 +10419,7 @@
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
     </row>
-    <row r="335" ht="13.65" customHeight="1">
+    <row r="335" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="4"/>
@@ -10393,7 +10443,7 @@
       <c r="U335" s="3"/>
       <c r="V335" s="3"/>
     </row>
-    <row r="336" ht="13.65" customHeight="1">
+    <row r="336" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="4"/>
@@ -10417,7 +10467,7 @@
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
     </row>
-    <row r="337" ht="13.65" customHeight="1">
+    <row r="337" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="4"/>
@@ -10441,7 +10491,7 @@
       <c r="U337" s="3"/>
       <c r="V337" s="3"/>
     </row>
-    <row r="338" ht="13.65" customHeight="1">
+    <row r="338" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="4"/>
@@ -10465,7 +10515,7 @@
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
     </row>
-    <row r="339" ht="13.65" customHeight="1">
+    <row r="339" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="4"/>
@@ -10489,7 +10539,7 @@
       <c r="U339" s="3"/>
       <c r="V339" s="3"/>
     </row>
-    <row r="340" ht="13.65" customHeight="1">
+    <row r="340" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="4"/>
@@ -10513,7 +10563,7 @@
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
     </row>
-    <row r="341" ht="13.65" customHeight="1">
+    <row r="341" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="4"/>
@@ -10537,7 +10587,7 @@
       <c r="U341" s="3"/>
       <c r="V341" s="3"/>
     </row>
-    <row r="342" ht="13.65" customHeight="1">
+    <row r="342" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="4"/>
@@ -10561,7 +10611,7 @@
       <c r="U342" s="3"/>
       <c r="V342" s="3"/>
     </row>
-    <row r="343" ht="13.65" customHeight="1">
+    <row r="343" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="4"/>
@@ -10585,7 +10635,7 @@
       <c r="U343" s="3"/>
       <c r="V343" s="3"/>
     </row>
-    <row r="344" ht="13.65" customHeight="1">
+    <row r="344" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="4"/>
@@ -10609,7 +10659,7 @@
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
     </row>
-    <row r="345" ht="13.65" customHeight="1">
+    <row r="345" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="4"/>
@@ -10633,7 +10683,7 @@
       <c r="U345" s="3"/>
       <c r="V345" s="3"/>
     </row>
-    <row r="346" ht="13.65" customHeight="1">
+    <row r="346" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="4"/>
@@ -10657,7 +10707,7 @@
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
     </row>
-    <row r="347" ht="13.65" customHeight="1">
+    <row r="347" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="4"/>
@@ -10681,7 +10731,7 @@
       <c r="U347" s="3"/>
       <c r="V347" s="3"/>
     </row>
-    <row r="348" ht="13.65" customHeight="1">
+    <row r="348" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="4"/>
@@ -10705,7 +10755,7 @@
       <c r="U348" s="3"/>
       <c r="V348" s="3"/>
     </row>
-    <row r="349" ht="13.65" customHeight="1">
+    <row r="349" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="4"/>
@@ -10729,7 +10779,7 @@
       <c r="U349" s="3"/>
       <c r="V349" s="3"/>
     </row>
-    <row r="350" ht="13.65" customHeight="1">
+    <row r="350" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="4"/>
@@ -10753,7 +10803,7 @@
       <c r="U350" s="3"/>
       <c r="V350" s="3"/>
     </row>
-    <row r="351" ht="13.65" customHeight="1">
+    <row r="351" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="4"/>
@@ -10777,7 +10827,7 @@
       <c r="U351" s="3"/>
       <c r="V351" s="3"/>
     </row>
-    <row r="352" ht="13.65" customHeight="1">
+    <row r="352" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="4"/>
@@ -10801,7 +10851,7 @@
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
     </row>
-    <row r="353" ht="13.65" customHeight="1">
+    <row r="353" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="4"/>
@@ -10825,7 +10875,7 @@
       <c r="U353" s="3"/>
       <c r="V353" s="3"/>
     </row>
-    <row r="354" ht="13.65" customHeight="1">
+    <row r="354" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="4"/>
@@ -10849,7 +10899,7 @@
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
     </row>
-    <row r="355" ht="13.65" customHeight="1">
+    <row r="355" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="4"/>
@@ -10873,7 +10923,7 @@
       <c r="U355" s="3"/>
       <c r="V355" s="3"/>
     </row>
-    <row r="356" ht="13.65" customHeight="1">
+    <row r="356" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="4"/>
@@ -10897,7 +10947,7 @@
       <c r="U356" s="3"/>
       <c r="V356" s="3"/>
     </row>
-    <row r="357" ht="13.65" customHeight="1">
+    <row r="357" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="4"/>
@@ -10921,7 +10971,7 @@
       <c r="U357" s="3"/>
       <c r="V357" s="3"/>
     </row>
-    <row r="358" ht="13.65" customHeight="1">
+    <row r="358" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="4"/>
@@ -10945,7 +10995,7 @@
       <c r="U358" s="3"/>
       <c r="V358" s="3"/>
     </row>
-    <row r="359" ht="13.65" customHeight="1">
+    <row r="359" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="4"/>
@@ -10969,7 +11019,7 @@
       <c r="U359" s="3"/>
       <c r="V359" s="3"/>
     </row>
-    <row r="360" ht="13.65" customHeight="1">
+    <row r="360" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="4"/>
@@ -10993,7 +11043,7 @@
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
     </row>
-    <row r="361" ht="13.65" customHeight="1">
+    <row r="361" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="4"/>
@@ -11017,7 +11067,7 @@
       <c r="U361" s="3"/>
       <c r="V361" s="3"/>
     </row>
-    <row r="362" ht="13.65" customHeight="1">
+    <row r="362" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="4"/>
@@ -11041,7 +11091,7 @@
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
     </row>
-    <row r="363" ht="13.65" customHeight="1">
+    <row r="363" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="4"/>
@@ -11065,7 +11115,7 @@
       <c r="U363" s="3"/>
       <c r="V363" s="3"/>
     </row>
-    <row r="364" ht="13.65" customHeight="1">
+    <row r="364" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="4"/>
@@ -11089,7 +11139,7 @@
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
     </row>
-    <row r="365" ht="13.65" customHeight="1">
+    <row r="365" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="4"/>
@@ -11113,7 +11163,7 @@
       <c r="U365" s="3"/>
       <c r="V365" s="3"/>
     </row>
-    <row r="366" ht="13.65" customHeight="1">
+    <row r="366" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="4"/>
@@ -11137,7 +11187,7 @@
       <c r="U366" s="3"/>
       <c r="V366" s="3"/>
     </row>
-    <row r="367" ht="13.65" customHeight="1">
+    <row r="367" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="4"/>
@@ -11161,7 +11211,7 @@
       <c r="U367" s="3"/>
       <c r="V367" s="3"/>
     </row>
-    <row r="368" ht="13.65" customHeight="1">
+    <row r="368" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="4"/>
@@ -11185,7 +11235,7 @@
       <c r="U368" s="3"/>
       <c r="V368" s="3"/>
     </row>
-    <row r="369" ht="13.65" customHeight="1">
+    <row r="369" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="4"/>
@@ -11209,7 +11259,7 @@
       <c r="U369" s="3"/>
       <c r="V369" s="3"/>
     </row>
-    <row r="370" ht="13.65" customHeight="1">
+    <row r="370" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="4"/>
@@ -11233,7 +11283,7 @@
       <c r="U370" s="3"/>
       <c r="V370" s="3"/>
     </row>
-    <row r="371" ht="13.65" customHeight="1">
+    <row r="371" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="4"/>
@@ -11257,7 +11307,7 @@
       <c r="U371" s="3"/>
       <c r="V371" s="3"/>
     </row>
-    <row r="372" ht="13.65" customHeight="1">
+    <row r="372" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="4"/>
@@ -11281,7 +11331,7 @@
       <c r="U372" s="3"/>
       <c r="V372" s="3"/>
     </row>
-    <row r="373" ht="13.65" customHeight="1">
+    <row r="373" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="4"/>
@@ -11305,7 +11355,7 @@
       <c r="U373" s="3"/>
       <c r="V373" s="3"/>
     </row>
-    <row r="374" ht="13.65" customHeight="1">
+    <row r="374" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="4"/>
@@ -11329,7 +11379,7 @@
       <c r="U374" s="3"/>
       <c r="V374" s="3"/>
     </row>
-    <row r="375" ht="13.65" customHeight="1">
+    <row r="375" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="4"/>
@@ -11353,7 +11403,7 @@
       <c r="U375" s="3"/>
       <c r="V375" s="3"/>
     </row>
-    <row r="376" ht="13.65" customHeight="1">
+    <row r="376" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="4"/>
@@ -11377,7 +11427,7 @@
       <c r="U376" s="3"/>
       <c r="V376" s="3"/>
     </row>
-    <row r="377" ht="13.65" customHeight="1">
+    <row r="377" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="4"/>
@@ -11401,7 +11451,7 @@
       <c r="U377" s="3"/>
       <c r="V377" s="3"/>
     </row>
-    <row r="378" ht="13.65" customHeight="1">
+    <row r="378" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="4"/>
@@ -11425,7 +11475,7 @@
       <c r="U378" s="3"/>
       <c r="V378" s="3"/>
     </row>
-    <row r="379" ht="13.65" customHeight="1">
+    <row r="379" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="4"/>
@@ -11449,7 +11499,7 @@
       <c r="U379" s="3"/>
       <c r="V379" s="3"/>
     </row>
-    <row r="380" ht="13.65" customHeight="1">
+    <row r="380" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="4"/>
@@ -11473,7 +11523,7 @@
       <c r="U380" s="3"/>
       <c r="V380" s="3"/>
     </row>
-    <row r="381" ht="13.65" customHeight="1">
+    <row r="381" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="4"/>
@@ -11497,7 +11547,7 @@
       <c r="U381" s="3"/>
       <c r="V381" s="3"/>
     </row>
-    <row r="382" ht="13.65" customHeight="1">
+    <row r="382" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="4"/>
@@ -11521,7 +11571,7 @@
       <c r="U382" s="3"/>
       <c r="V382" s="3"/>
     </row>
-    <row r="383" ht="13.65" customHeight="1">
+    <row r="383" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="4"/>
@@ -11545,7 +11595,7 @@
       <c r="U383" s="3"/>
       <c r="V383" s="3"/>
     </row>
-    <row r="384" ht="13.65" customHeight="1">
+    <row r="384" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="4"/>
@@ -11569,7 +11619,7 @@
       <c r="U384" s="3"/>
       <c r="V384" s="3"/>
     </row>
-    <row r="385" ht="13.65" customHeight="1">
+    <row r="385" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="4"/>
@@ -11593,7 +11643,7 @@
       <c r="U385" s="3"/>
       <c r="V385" s="3"/>
     </row>
-    <row r="386" ht="13.65" customHeight="1">
+    <row r="386" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="4"/>
@@ -11617,7 +11667,7 @@
       <c r="U386" s="3"/>
       <c r="V386" s="3"/>
     </row>
-    <row r="387" ht="13.65" customHeight="1">
+    <row r="387" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="4"/>
@@ -11641,7 +11691,7 @@
       <c r="U387" s="3"/>
       <c r="V387" s="3"/>
     </row>
-    <row r="388" ht="13.65" customHeight="1">
+    <row r="388" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="4"/>
@@ -11665,7 +11715,7 @@
       <c r="U388" s="3"/>
       <c r="V388" s="3"/>
     </row>
-    <row r="389" ht="13.65" customHeight="1">
+    <row r="389" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="4"/>
@@ -11689,7 +11739,7 @@
       <c r="U389" s="3"/>
       <c r="V389" s="3"/>
     </row>
-    <row r="390" ht="13.65" customHeight="1">
+    <row r="390" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="4"/>
@@ -11713,7 +11763,7 @@
       <c r="U390" s="3"/>
       <c r="V390" s="3"/>
     </row>
-    <row r="391" ht="13.65" customHeight="1">
+    <row r="391" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="4"/>
@@ -11737,7 +11787,7 @@
       <c r="U391" s="3"/>
       <c r="V391" s="3"/>
     </row>
-    <row r="392" ht="13.65" customHeight="1">
+    <row r="392" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="4"/>
@@ -11761,7 +11811,7 @@
       <c r="U392" s="3"/>
       <c r="V392" s="3"/>
     </row>
-    <row r="393" ht="13.65" customHeight="1">
+    <row r="393" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="4"/>
@@ -11785,7 +11835,7 @@
       <c r="U393" s="3"/>
       <c r="V393" s="3"/>
     </row>
-    <row r="394" ht="13.65" customHeight="1">
+    <row r="394" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="4"/>
@@ -11809,7 +11859,7 @@
       <c r="U394" s="3"/>
       <c r="V394" s="3"/>
     </row>
-    <row r="395" ht="13.65" customHeight="1">
+    <row r="395" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="4"/>
@@ -11833,7 +11883,7 @@
       <c r="U395" s="3"/>
       <c r="V395" s="3"/>
     </row>
-    <row r="396" ht="13.65" customHeight="1">
+    <row r="396" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="4"/>
@@ -11857,7 +11907,7 @@
       <c r="U396" s="3"/>
       <c r="V396" s="3"/>
     </row>
-    <row r="397" ht="13.65" customHeight="1">
+    <row r="397" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="4"/>
@@ -11881,7 +11931,7 @@
       <c r="U397" s="3"/>
       <c r="V397" s="3"/>
     </row>
-    <row r="398" ht="13.65" customHeight="1">
+    <row r="398" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="4"/>
@@ -11905,7 +11955,7 @@
       <c r="U398" s="3"/>
       <c r="V398" s="3"/>
     </row>
-    <row r="399" ht="13.65" customHeight="1">
+    <row r="399" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="4"/>
@@ -11929,7 +11979,7 @@
       <c r="U399" s="3"/>
       <c r="V399" s="3"/>
     </row>
-    <row r="400" ht="13.65" customHeight="1">
+    <row r="400" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="4"/>
@@ -11953,7 +12003,7 @@
       <c r="U400" s="3"/>
       <c r="V400" s="3"/>
     </row>
-    <row r="401" ht="13.65" customHeight="1">
+    <row r="401" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="4"/>
@@ -11977,7 +12027,7 @@
       <c r="U401" s="3"/>
       <c r="V401" s="3"/>
     </row>
-    <row r="402" ht="13.65" customHeight="1">
+    <row r="402" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="4"/>
@@ -12001,7 +12051,7 @@
       <c r="U402" s="3"/>
       <c r="V402" s="3"/>
     </row>
-    <row r="403" ht="13.65" customHeight="1">
+    <row r="403" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="4"/>
@@ -12025,7 +12075,7 @@
       <c r="U403" s="3"/>
       <c r="V403" s="3"/>
     </row>
-    <row r="404" ht="13.65" customHeight="1">
+    <row r="404" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="4"/>
@@ -12049,7 +12099,7 @@
       <c r="U404" s="3"/>
       <c r="V404" s="3"/>
     </row>
-    <row r="405" ht="13.65" customHeight="1">
+    <row r="405" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="4"/>
@@ -12073,7 +12123,7 @@
       <c r="U405" s="3"/>
       <c r="V405" s="3"/>
     </row>
-    <row r="406" ht="13.65" customHeight="1">
+    <row r="406" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="4"/>
@@ -12097,7 +12147,7 @@
       <c r="U406" s="3"/>
       <c r="V406" s="3"/>
     </row>
-    <row r="407" ht="13.65" customHeight="1">
+    <row r="407" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="4"/>
@@ -12121,7 +12171,7 @@
       <c r="U407" s="3"/>
       <c r="V407" s="3"/>
     </row>
-    <row r="408" ht="13.65" customHeight="1">
+    <row r="408" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="4"/>
@@ -12145,7 +12195,7 @@
       <c r="U408" s="3"/>
       <c r="V408" s="3"/>
     </row>
-    <row r="409" ht="13.65" customHeight="1">
+    <row r="409" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="4"/>
@@ -12169,7 +12219,7 @@
       <c r="U409" s="3"/>
       <c r="V409" s="3"/>
     </row>
-    <row r="410" ht="13.65" customHeight="1">
+    <row r="410" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="4"/>
@@ -12193,7 +12243,7 @@
       <c r="U410" s="3"/>
       <c r="V410" s="3"/>
     </row>
-    <row r="411" ht="13.65" customHeight="1">
+    <row r="411" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="4"/>
@@ -12217,7 +12267,7 @@
       <c r="U411" s="3"/>
       <c r="V411" s="3"/>
     </row>
-    <row r="412" ht="13.65" customHeight="1">
+    <row r="412" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="4"/>
@@ -12241,7 +12291,7 @@
       <c r="U412" s="3"/>
       <c r="V412" s="3"/>
     </row>
-    <row r="413" ht="13.65" customHeight="1">
+    <row r="413" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="4"/>
@@ -12265,7 +12315,7 @@
       <c r="U413" s="3"/>
       <c r="V413" s="3"/>
     </row>
-    <row r="414" ht="13.65" customHeight="1">
+    <row r="414" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="4"/>
@@ -12289,7 +12339,7 @@
       <c r="U414" s="3"/>
       <c r="V414" s="3"/>
     </row>
-    <row r="415" ht="13.65" customHeight="1">
+    <row r="415" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="4"/>
@@ -12313,7 +12363,7 @@
       <c r="U415" s="3"/>
       <c r="V415" s="3"/>
     </row>
-    <row r="416" ht="13.65" customHeight="1">
+    <row r="416" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="4"/>
@@ -12337,7 +12387,7 @@
       <c r="U416" s="3"/>
       <c r="V416" s="3"/>
     </row>
-    <row r="417" ht="13.65" customHeight="1">
+    <row r="417" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="4"/>
@@ -12361,7 +12411,7 @@
       <c r="U417" s="3"/>
       <c r="V417" s="3"/>
     </row>
-    <row r="418" ht="13.65" customHeight="1">
+    <row r="418" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="4"/>
@@ -12385,7 +12435,7 @@
       <c r="U418" s="3"/>
       <c r="V418" s="3"/>
     </row>
-    <row r="419" ht="13.65" customHeight="1">
+    <row r="419" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="4"/>
@@ -12409,7 +12459,7 @@
       <c r="U419" s="3"/>
       <c r="V419" s="3"/>
     </row>
-    <row r="420" ht="13.65" customHeight="1">
+    <row r="420" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="4"/>
@@ -12433,7 +12483,7 @@
       <c r="U420" s="3"/>
       <c r="V420" s="3"/>
     </row>
-    <row r="421" ht="13.65" customHeight="1">
+    <row r="421" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="4"/>
@@ -12457,7 +12507,7 @@
       <c r="U421" s="3"/>
       <c r="V421" s="3"/>
     </row>
-    <row r="422" ht="13.65" customHeight="1">
+    <row r="422" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="4"/>
@@ -12481,7 +12531,7 @@
       <c r="U422" s="3"/>
       <c r="V422" s="3"/>
     </row>
-    <row r="423" ht="13.65" customHeight="1">
+    <row r="423" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="4"/>
@@ -12505,7 +12555,7 @@
       <c r="U423" s="3"/>
       <c r="V423" s="3"/>
     </row>
-    <row r="424" ht="13.65" customHeight="1">
+    <row r="424" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="4"/>
@@ -12529,7 +12579,7 @@
       <c r="U424" s="3"/>
       <c r="V424" s="3"/>
     </row>
-    <row r="425" ht="13.65" customHeight="1">
+    <row r="425" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="4"/>
@@ -12553,7 +12603,7 @@
       <c r="U425" s="3"/>
       <c r="V425" s="3"/>
     </row>
-    <row r="426" ht="13.65" customHeight="1">
+    <row r="426" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="4"/>
@@ -12577,7 +12627,7 @@
       <c r="U426" s="3"/>
       <c r="V426" s="3"/>
     </row>
-    <row r="427" ht="13.65" customHeight="1">
+    <row r="427" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="4"/>
@@ -12601,7 +12651,7 @@
       <c r="U427" s="3"/>
       <c r="V427" s="3"/>
     </row>
-    <row r="428" ht="13.65" customHeight="1">
+    <row r="428" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="4"/>
@@ -12625,7 +12675,7 @@
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
     </row>
-    <row r="429" ht="13.65" customHeight="1">
+    <row r="429" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="4"/>
@@ -12649,7 +12699,7 @@
       <c r="U429" s="3"/>
       <c r="V429" s="3"/>
     </row>
-    <row r="430" ht="13.65" customHeight="1">
+    <row r="430" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="4"/>
@@ -12673,7 +12723,7 @@
       <c r="U430" s="3"/>
       <c r="V430" s="3"/>
     </row>
-    <row r="431" ht="13.65" customHeight="1">
+    <row r="431" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="4"/>
@@ -12697,7 +12747,7 @@
       <c r="U431" s="3"/>
       <c r="V431" s="3"/>
     </row>
-    <row r="432" ht="13.65" customHeight="1">
+    <row r="432" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="4"/>
@@ -12721,7 +12771,7 @@
       <c r="U432" s="3"/>
       <c r="V432" s="3"/>
     </row>
-    <row r="433" ht="13.65" customHeight="1">
+    <row r="433" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="4"/>
@@ -12745,7 +12795,7 @@
       <c r="U433" s="3"/>
       <c r="V433" s="3"/>
     </row>
-    <row r="434" ht="13.65" customHeight="1">
+    <row r="434" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="4"/>
@@ -12769,7 +12819,7 @@
       <c r="U434" s="3"/>
       <c r="V434" s="3"/>
     </row>
-    <row r="435" ht="13.65" customHeight="1">
+    <row r="435" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="4"/>
@@ -12793,7 +12843,7 @@
       <c r="U435" s="3"/>
       <c r="V435" s="3"/>
     </row>
-    <row r="436" ht="13.65" customHeight="1">
+    <row r="436" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="4"/>
@@ -12817,7 +12867,7 @@
       <c r="U436" s="3"/>
       <c r="V436" s="3"/>
     </row>
-    <row r="437" ht="13.65" customHeight="1">
+    <row r="437" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="4"/>
@@ -12841,7 +12891,7 @@
       <c r="U437" s="3"/>
       <c r="V437" s="3"/>
     </row>
-    <row r="438" ht="13.65" customHeight="1">
+    <row r="438" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="4"/>
@@ -12865,7 +12915,7 @@
       <c r="U438" s="3"/>
       <c r="V438" s="3"/>
     </row>
-    <row r="439" ht="13.65" customHeight="1">
+    <row r="439" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="4"/>
@@ -12889,7 +12939,7 @@
       <c r="U439" s="3"/>
       <c r="V439" s="3"/>
     </row>
-    <row r="440" ht="13.65" customHeight="1">
+    <row r="440" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="4"/>
@@ -12913,7 +12963,7 @@
       <c r="U440" s="3"/>
       <c r="V440" s="3"/>
     </row>
-    <row r="441" ht="13.65" customHeight="1">
+    <row r="441" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="4"/>
@@ -12937,7 +12987,7 @@
       <c r="U441" s="3"/>
       <c r="V441" s="3"/>
     </row>
-    <row r="442" ht="13.65" customHeight="1">
+    <row r="442" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="4"/>
@@ -12961,7 +13011,7 @@
       <c r="U442" s="3"/>
       <c r="V442" s="3"/>
     </row>
-    <row r="443" ht="13.65" customHeight="1">
+    <row r="443" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="4"/>
@@ -12985,7 +13035,7 @@
       <c r="U443" s="3"/>
       <c r="V443" s="3"/>
     </row>
-    <row r="444" ht="13.65" customHeight="1">
+    <row r="444" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="4"/>
@@ -13009,7 +13059,7 @@
       <c r="U444" s="3"/>
       <c r="V444" s="3"/>
     </row>
-    <row r="445" ht="13.65" customHeight="1">
+    <row r="445" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="4"/>
@@ -13033,7 +13083,7 @@
       <c r="U445" s="3"/>
       <c r="V445" s="3"/>
     </row>
-    <row r="446" ht="13.65" customHeight="1">
+    <row r="446" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="4"/>
@@ -13057,7 +13107,7 @@
       <c r="U446" s="3"/>
       <c r="V446" s="3"/>
     </row>
-    <row r="447" ht="13.65" customHeight="1">
+    <row r="447" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="4"/>
@@ -13081,7 +13131,7 @@
       <c r="U447" s="3"/>
       <c r="V447" s="3"/>
     </row>
-    <row r="448" ht="13.65" customHeight="1">
+    <row r="448" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="4"/>
@@ -13105,7 +13155,7 @@
       <c r="U448" s="3"/>
       <c r="V448" s="3"/>
     </row>
-    <row r="449" ht="13.65" customHeight="1">
+    <row r="449" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="4"/>
@@ -13129,7 +13179,7 @@
       <c r="U449" s="3"/>
       <c r="V449" s="3"/>
     </row>
-    <row r="450" ht="13.65" customHeight="1">
+    <row r="450" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="4"/>
@@ -13153,7 +13203,7 @@
       <c r="U450" s="3"/>
       <c r="V450" s="3"/>
     </row>
-    <row r="451" ht="13.65" customHeight="1">
+    <row r="451" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="4"/>
@@ -13177,7 +13227,7 @@
       <c r="U451" s="3"/>
       <c r="V451" s="3"/>
     </row>
-    <row r="452" ht="13.65" customHeight="1">
+    <row r="452" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="4"/>
@@ -13201,7 +13251,7 @@
       <c r="U452" s="3"/>
       <c r="V452" s="3"/>
     </row>
-    <row r="453" ht="13.65" customHeight="1">
+    <row r="453" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="4"/>
@@ -13225,7 +13275,7 @@
       <c r="U453" s="3"/>
       <c r="V453" s="3"/>
     </row>
-    <row r="454" ht="13.65" customHeight="1">
+    <row r="454" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="4"/>
@@ -13249,7 +13299,7 @@
       <c r="U454" s="3"/>
       <c r="V454" s="3"/>
     </row>
-    <row r="455" ht="13.65" customHeight="1">
+    <row r="455" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="4"/>
@@ -13273,7 +13323,7 @@
       <c r="U455" s="3"/>
       <c r="V455" s="3"/>
     </row>
-    <row r="456" ht="13.65" customHeight="1">
+    <row r="456" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="4"/>
@@ -13297,7 +13347,7 @@
       <c r="U456" s="3"/>
       <c r="V456" s="3"/>
     </row>
-    <row r="457" ht="13.65" customHeight="1">
+    <row r="457" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="4"/>
@@ -13321,7 +13371,7 @@
       <c r="U457" s="3"/>
       <c r="V457" s="3"/>
     </row>
-    <row r="458" ht="13.65" customHeight="1">
+    <row r="458" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="4"/>
@@ -13345,7 +13395,7 @@
       <c r="U458" s="3"/>
       <c r="V458" s="3"/>
     </row>
-    <row r="459" ht="13.65" customHeight="1">
+    <row r="459" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="4"/>
@@ -13369,7 +13419,7 @@
       <c r="U459" s="3"/>
       <c r="V459" s="3"/>
     </row>
-    <row r="460" ht="13.65" customHeight="1">
+    <row r="460" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="4"/>
@@ -13393,7 +13443,7 @@
       <c r="U460" s="3"/>
       <c r="V460" s="3"/>
     </row>
-    <row r="461" ht="13.65" customHeight="1">
+    <row r="461" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="4"/>
@@ -13417,7 +13467,7 @@
       <c r="U461" s="3"/>
       <c r="V461" s="3"/>
     </row>
-    <row r="462" ht="13.65" customHeight="1">
+    <row r="462" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="4"/>
@@ -13441,7 +13491,7 @@
       <c r="U462" s="3"/>
       <c r="V462" s="3"/>
     </row>
-    <row r="463" ht="13.65" customHeight="1">
+    <row r="463" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="4"/>
@@ -13465,7 +13515,7 @@
       <c r="U463" s="3"/>
       <c r="V463" s="3"/>
     </row>
-    <row r="464" ht="13.65" customHeight="1">
+    <row r="464" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="4"/>
@@ -13489,7 +13539,7 @@
       <c r="U464" s="3"/>
       <c r="V464" s="3"/>
     </row>
-    <row r="465" ht="13.65" customHeight="1">
+    <row r="465" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="4"/>
@@ -13513,7 +13563,7 @@
       <c r="U465" s="3"/>
       <c r="V465" s="3"/>
     </row>
-    <row r="466" ht="13.65" customHeight="1">
+    <row r="466" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="4"/>
@@ -13537,7 +13587,7 @@
       <c r="U466" s="3"/>
       <c r="V466" s="3"/>
     </row>
-    <row r="467" ht="13.65" customHeight="1">
+    <row r="467" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="4"/>
@@ -13561,7 +13611,7 @@
       <c r="U467" s="3"/>
       <c r="V467" s="3"/>
     </row>
-    <row r="468" ht="13.65" customHeight="1">
+    <row r="468" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="4"/>
@@ -13585,7 +13635,7 @@
       <c r="U468" s="3"/>
       <c r="V468" s="3"/>
     </row>
-    <row r="469" ht="13.65" customHeight="1">
+    <row r="469" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="4"/>
@@ -13609,7 +13659,7 @@
       <c r="U469" s="3"/>
       <c r="V469" s="3"/>
     </row>
-    <row r="470" ht="13.65" customHeight="1">
+    <row r="470" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="4"/>
@@ -13633,7 +13683,7 @@
       <c r="U470" s="3"/>
       <c r="V470" s="3"/>
     </row>
-    <row r="471" ht="13.65" customHeight="1">
+    <row r="471" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="4"/>
@@ -13657,7 +13707,7 @@
       <c r="U471" s="3"/>
       <c r="V471" s="3"/>
     </row>
-    <row r="472" ht="13.65" customHeight="1">
+    <row r="472" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="4"/>
@@ -13681,7 +13731,7 @@
       <c r="U472" s="3"/>
       <c r="V472" s="3"/>
     </row>
-    <row r="473" ht="13.65" customHeight="1">
+    <row r="473" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="4"/>
@@ -13705,7 +13755,7 @@
       <c r="U473" s="3"/>
       <c r="V473" s="3"/>
     </row>
-    <row r="474" ht="13.65" customHeight="1">
+    <row r="474" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="4"/>
@@ -13731,12 +13781,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B474 D1:V474">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
